--- a/doc/UI规格与需求/UI规格.xlsx
+++ b/doc/UI规格与需求/UI规格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065" activeTab="2"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="列表" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
   <si>
     <t>UI类</t>
   </si>
@@ -30,6 +30,9 @@
     <t>规格</t>
   </si>
   <si>
+    <t>数量</t>
+  </si>
+  <si>
     <t>描述</t>
   </si>
   <si>
@@ -42,6 +45,9 @@
     <t>字号10、14、16、18、20、22。</t>
   </si>
   <si>
+    <t>各1个</t>
+  </si>
+  <si>
     <t>白色</t>
   </si>
   <si>
@@ -199,6 +205,9 @@
   </si>
   <si>
     <t>90*90（有底、方形）；40*40（无底）；8个装备升级资源、3个货币资源、3把钥匙、3个宝箱、3瓶药水=20个</t>
+  </si>
+  <si>
+    <t>20*2</t>
   </si>
   <si>
     <t>战斗场景</t>
@@ -260,10 +269,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -295,29 +304,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,17 +334,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,24 +349,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,16 +371,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,23 +434,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,7 +449,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,31 +479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -500,7 +527,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,13 +563,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -530,97 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,7 +647,61 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,62 +724,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -739,10 +748,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -751,137 +760,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,11 +900,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2580,23 +2598,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="3"/>
+    <col min="1" max="2" width="9" style="3"/>
     <col min="3" max="3" width="21.4083333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="91.8416666666667" style="3" customWidth="1"/>
-    <col min="5" max="5" width="44.775" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="3"/>
+    <col min="4" max="4" width="57.4916666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.3" style="5" customWidth="1"/>
+    <col min="6" max="6" width="44.775" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2606,216 +2624,267 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="2:6">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:5">
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
       <c r="B3" s="3">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="2:5">
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
       <c r="B4" s="3">
         <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="3">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:5">
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
       <c r="B6" s="3">
         <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6">
       <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="3:5">
+      <c r="D7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6">
       <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="3:5">
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5">
+        <v>6</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="3:6">
       <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E9" s="5">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="3" t="s">
+    </row>
+    <row r="10" spans="3:6">
+      <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="3" t="s">
+    </row>
+    <row r="11" spans="3:6">
+      <c r="C11" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="3:5">
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
       <c r="C12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="3:5">
+      <c r="D12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6">
       <c r="C13" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="3:5">
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6">
       <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="3:5">
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
       <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
+        <v>46</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
       <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="3:5">
+      <c r="D16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" ht="33" spans="3:6">
       <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1" t="s">
+      <c r="D17" s="4" t="s">
         <v>52</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>1</v>
@@ -2823,127 +2892,154 @@
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4">
+      <c r="F24" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <v>1</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4">
+        <v>55</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <v>2</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4">
+        <v>57</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="33" spans="2:5">
       <c r="B27" s="3">
         <v>3</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" ht="33" spans="2:5">
       <c r="B28" s="3">
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4">
+        <v>61</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
       <c r="B29" s="3">
         <v>5</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5">
+        <v>64</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" ht="33" spans="2:6">
       <c r="B30" s="3">
         <v>6</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5">
+        <v>66</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="5">
+        <v>11</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
       <c r="B31" s="3">
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5">
+        <v>69</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" ht="33" spans="2:6">
       <c r="B32" s="3">
         <v>8</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>72</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="5">
+        <v>21</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="3">
         <v>9</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" s="5">
+        <v>5</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" location="Sheet2!d4" display="点击跳转" tooltip="点击后跳转到参考"/>
+    <hyperlink ref="G2" location="Sheet2!d4" display="点击跳转" tooltip="点击后跳转到参考"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2962,66 +3058,66 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="16.125" style="3" customWidth="1"/>
-    <col min="5" max="13" width="9" style="3"/>
-    <col min="14" max="14" width="13.75" style="3" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="3"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="13.75" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:4">
-      <c r="D4" s="3" t="s">
-        <v>6</v>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="4:14">
-      <c r="D11" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>35</v>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="9:9">
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="4:9">
-      <c r="D13" s="3" t="s">
-        <v>76</v>
+      <c r="D13" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="16" spans="4:4">
-      <c r="D16" s="3" t="s">
-        <v>77</v>
+      <c r="D16" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="14:14">
-      <c r="N18" s="3" t="s">
-        <v>38</v>
+      <c r="N18" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="3" t="s">
-        <v>78</v>
+      <c r="D20" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="3" t="s">
-        <v>20</v>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="14:14">
-      <c r="N24" s="3" t="s">
-        <v>41</v>
+      <c r="N24" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="9:9">
       <c r="I26"/>
     </row>
     <row r="27" spans="4:9">
-      <c r="D27" s="3" t="s">
-        <v>23</v>
+      <c r="D27" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="I27"/>
     </row>
@@ -3030,8 +3126,8 @@
     </row>
     <row r="29" spans="9:14">
       <c r="I29"/>
-      <c r="N29" s="3" t="s">
-        <v>44</v>
+      <c r="N29" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="9:9">
@@ -3041,24 +3137,24 @@
       <c r="I31"/>
     </row>
     <row r="33" spans="4:14">
-      <c r="D33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>46</v>
+      <c r="D33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="4:14">
       <c r="D37" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>49</v>
+        <v>31</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -3074,7 +3170,7 @@
   <sheetPr/>
   <dimension ref="D5:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
@@ -3085,46 +3181,46 @@
   <sheetData>
     <row r="5" spans="4:15">
       <c r="D5" s="2"/>
-      <c r="O5" s="3" t="s">
-        <v>63</v>
+      <c r="O5" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="4:15">
       <c r="D12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="15:15">
-      <c r="O18" s="3" t="s">
-        <v>69</v>
+      <c r="O18" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="15:15">
-      <c r="O26" s="3" t="s">
-        <v>72</v>
+      <c r="O26" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
